--- a/heart-hardware/list-of-parts.xlsx
+++ b/heart-hardware/list-of-parts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Lp.</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Microcontroller low-power in TSSOP-20 package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holtek BS812A-1 </t>
+  </si>
+  <si>
+    <t>Touch Sensor IC</t>
   </si>
 </sst>
 </file>
@@ -328,6 +334,43 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,43 +395,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -673,7 +679,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,305 +695,315 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="1">
         <v>2.42</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
         <v>3.42</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="2">
         <v>0.48</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="2">
         <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="15">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.64200000000000002</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
+      <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15">
+      <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+      <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
+      <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
+      <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+      <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
+      <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
+      <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+      <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="21">
+      <c r="G26" s="11">
         <f>SUM(G4:G25)</f>
-        <v>7.57</v>
+        <v>8.2119999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1020,9 @@
     <hyperlink ref="F5" r:id="rId2"/>
     <hyperlink ref="F6" r:id="rId3"/>
     <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>